--- a/raporty/Raport ofert firmy BZ-Bud_2025-09-02.xlsx
+++ b/raporty/Raport ofert firmy BZ-Bud_2025-09-02.xlsx
@@ -562,7 +562,7 @@
         <v>899000</v>
       </c>
       <c r="M2" t="n">
-        <v>11196.9111969112</v>
+        <v>11196.91</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -633,7 +633,7 @@
         <v>649000</v>
       </c>
       <c r="M3" t="n">
-        <v>13666.03495472731</v>
+        <v>13666.03</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         <v>699000</v>
       </c>
       <c r="M4" t="n">
-        <v>13617.76738749269</v>
+        <v>13617.77</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>459000</v>
       </c>
       <c r="M5" t="n">
-        <v>14678.60569235689</v>
+        <v>14678.61</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
